--- a/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
+++ b/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaidc\Documents\Github\12-DOF-Quadruped\CALCULATIONS\HOUSING COMBINED LOADING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaidc\Documents\Github\12-DOF-Quadruped\Calculation solvers\Housing combined loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539338B9-A728-40EC-B661-C676905A1E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B15712-AEB4-433A-90E5-97EF87651884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{CA3A924D-1B74-47FA-8478-8B12608BBBB0}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>lbf/in</t>
   </si>
   <si>
-    <t>50 lbf ditributed over 12 in</t>
-  </si>
-  <si>
     <t>*CANTILEVER BEAM*</t>
   </si>
   <si>
@@ -210,15 +207,9 @@
     <t>`</t>
   </si>
   <si>
-    <t>force of two legs on one hip (6.31 lbf per leg static… 3X)</t>
-  </si>
-  <si>
     <t>*DISTRIBUTED LOAD*</t>
   </si>
   <si>
-    <t xml:space="preserve">3X static hold torque (3.2 ft-lbs = 38.4 lb-in from MATLAB calc) + 3X Full load of one leg </t>
-  </si>
-  <si>
     <t>Experimental Yield Stresses</t>
   </si>
   <si>
@@ -235,6 +226,15 @@
   </si>
   <si>
     <t>CF factor of safety, S</t>
+  </si>
+  <si>
+    <t>26 lbf ditributed over 14 in</t>
+  </si>
+  <si>
+    <t>force of two legs on one hip (45 lbf per leg for dynamic load)</t>
+  </si>
+  <si>
+    <t>dynamic load torque (55ft-lbs = 660 lb-in from NE python) +  Full load of one leg (45 lbs * 3 in from axis)</t>
   </si>
 </sst>
 </file>
@@ -2052,115 +2052,115 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5072 49828,'0'0,"22"9,-9 0,-1 7,0 1,0 7,0-2,0-2,-6 0,2-4,-4-5,2-1,0-6,-4 2,0-6,0-8,-2-6,0-4,0-1,0-7,0 4,0 2,4-1,4 3,-2 9,4-4,0 3,0 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5884 49999,'0'2503,"6020"-2503</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5010 50933,'0'0,"0"4,0 6,2 1,0 2,0 1,2 2,2 8,-4-7,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5296 51082,'0'0,"66"-17,-46 17,-1 0,-7 4,1 7,-11 1,-2-3,0 5,-4 0,-9-6,0 0,-1 0,-2-2,8-4,-6-2,6 0,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5326 51082,'0'0,"-4"55,10-35,0 0,-4 3,8 2,-2-4,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4988 51143,'0'0,"66"-12,-46 12,-4-4,5 2,-5 0,6 0,-8 2,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5072 51250,'0'0,"16"-16,-6 16,-8 0,5 0,-1 0,-4 6,-2 2,0-2,0 2,0 2,0 2,-6 2,-3-2,3-1,-2-3,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,3-6,-1 4,0 2,6-4,-2 2,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5944 51250,'3245'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9191 51286,'0'2411</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8686 52103,'0'0,"8"48,-6-34,-2-5,8 8,-6-7,4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8819 52127,'0'0,"-44"56,27-32,1-1,-4 15,10-8,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8989 52129,'0'0,"12"49,-12-32,0-1,0-1,0 1,0 1,0-2,-2-3,2 0,0-6,0 2,0-6,6-2,-2 0,2 0,0 0,0 0,2 0,2 0,-1 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11864 52151,'0'0,"0"16,0-5,4 2,-4 3,0-1,0 1,0 3,0 0,0-3,0 1,-4 0,4-7,0-2,0-1,0-3,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8831 52259,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0-1,0 3,-10 2,-2 1,0 2,-2-7,7 6,-3-9,4 3,2-4,4-4,8-2,4 0,3 0,1-4,0 0,4 2,-8 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12480 52470,'0'0,"-51"50,39-31,-2 5,2 0,6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12345 52485,'0'0,"12"-1,-8 1,2 0,-2 1,0 3,2 4,0-2,0 5,2-1,-2-3,-2 1,2 0,2 0,-4-6,0 4,4-4,1-2,-5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12603 53506,'0'0,"0"8,0-1,0 3,0 0,0 7,0-4,0 7,0 6,0-10,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12991 53558,'0'0,"61"-10,-43 18,0-1,0 3,-8 4,-1 2,-7-2,-2 2,-2-4,-13-3,-1-1,-2-6,-2 2,2-4,1 0,7-4,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12995 53562,'0'0,"2"11,0-7,-2-2,0 4,0 2,0 0,0 8,0 0,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13005 53639,'0'0,"-2"63,2-35,6-2,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12329 53649,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-3,0-1,2 2,-4 2,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12721 53649,'0'0,"-45"51,36-35,-1 4,-12 6,10-2,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9240 53718,'2674'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12711 53786,'0'0,"57"-10,-51 18,-2-6,-4 7,0 2,-2 1,-10 0,2 1,2 0,0-3,-3 2,5-4,-2 4,6-6,-2 0,4-4,0 4,4-6,6 2,0-2,5 0,-1 0,0 0,2 0,-2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5201 54554,'0'0,"0"16,0-8,0 5,0-2,0 5,0 0,0-2,0 2,0-6,6 3,-6-7,6-4,-4 0,4-2,-6 0,4-8,0-1,-4-3,0 2,0-7,0 2,0-1,0-3,0 2,0 1,0 4,0 2,0 4,2 0,0 2,2 4,-2-5,0 5,0 0,4 9,3 1,-3 5,0 2,0 4,2 0,2-3,-4-3,4 2,-6-11,2-2,2-4,-4 0,0-2,0-10,0-4,-2-4,0-3,2-2,-4 6,4 2,-2 7,0 1,0 3,0 6,2 0,2 6,0 1,0 1,2 4,-4 0,1 4,-1 7,-2-4,6 3,-5-2,9 0,-4-7,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5882 54580,'0'2504,"6020"-2504</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10261 55446,'0'0,"8"71,-8-49,4-2,-4 2,0-9,0 4,5-9,-5 2,2-8,0-2,0-2,-2-14,0 6,0-9,0-2,0-5,-2 0,0 0,2 0,0 9,0-2,0 7,0 5,0 3,2-4,4 8,-2 0,0 0,0 8,4 3,-2 10,2-2,0 7,4-4,0-2,-2 0,-2 0,0-6,-2-4,-1-3,-1-5,-2-2,-2 0,0-8,0-5,0-10,0 0,0-7,0 2,0 3,0 0,0 13,0 3,0 1,8 6,-5 0,5 2,2 0,-4 0,4 4,-2 8,-4 1,-2 6,0 2,0 3,2-2,0-2,6 9,-4-4,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9054 55764,'0'0,"39"-36,-19 32,4-5,4-1,0 2,-3 4,-9 4,-8 0,0 8,-8 6,0 3,-8 1,-4 2,2-4,1 0,1-9,8-5,8-2,15-2,-1-11,10-9,1-2,10-2,17-1,17-9,12-4,4 3,-21 16,-10 2,-30 14,-12 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10639 55594,'0'0,"0"-2,0 4,0 4,0 1,0-1,0 9,0-8,2 7,2-4,2 0,-6-6,2 1,2 1,-2-1,-2-5,0 0,0-11,0 2,-6 1,4-2,2 2,-4-2,2 5,2-4,0 3,0-2,0 0,2 5,2 1,-2 0,2 2,-2 0,0 0,2 7,0 1,0 4,0 0,5-2,-7 2,4-2,-2-2,0-4,-2-1,0-3,0 0,-2-7,0-3,4-4,0 0,-2 4,2 0,0-1,0 3,0 6,-4-2,2 4,2 0,-2 0,0 4,4 3,0 1,-1 0,1 3,0-4,2 5,0 2,2-2,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10893 55629,'0'0,"-16"-26,8 25,2 1,4 0,-1 0,-3 0,4 0,-4 1,4 5,-2 0,4 5,0-4,0 1,0 0,6-2,2 0,-1-4,1-2,-2 0,2 0,-2-2,-2-4,-2 2,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 8,2-8,-2 4,4 3,1-5,-3 3,-4-7,2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11129 55602,'0'0,"-31"33,19-15,0 2,0 4,2-2,4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10992 55619,'0'0,"68"32,-54-22,0 0,4 1,1 0,-5 1,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9001 55709,'0'0,"-12"33,2-18,-6 0,6 1,-2 0,0-9,6 2,3-1,3-8,7 0,3 0,6 0,4 0,-2 0,4 0,-4 0,1 0,2 0,-3 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 55925,'0'0,"0"-2,0 10,4 0,-2 5,0-3,2 4,-2-1,-2 3,2 1,-2 2,0-3,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5877 57029,'2936'-1071</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8872 55984,'3016'1026</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4986 56014,'0'0,"58"-23,-44 23,-2 0,2 8,-4 7,-2-1,-6 3,1-3,-3 6,0-6,-5-2,-7 2,4-9,-8-3,2-2,0 0,4 0,-4 0,6-3,2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5227 56026,'0'0,"4"7,0-3,-2 4,0-2,-2 2,0 6,0-2,0 8,0-4,0-1,0 0,0 1,0-7,2-1,4-4,3 2,-1-4,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5002 56053,'0'0,"10"52,-8-36,6 6,-8-6,8 1,-8-5,4 0,0-1,-4-6,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56155,'0'0,"56"-10,-35 8,11 2,-12 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4831 56242,'0'0,"-35"42,27-30,0-4,2 2,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-1 0,1 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4863 56258,'0'0,"14"38,-12-24,2 2,-2 1,0-2,-2 1,4 0,0 0,-4-4,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12065 56697,'0'0,"0"8,0 1,2-1,-2 9,0-2,0-1,0 2,0 0,0-6,2 2,-2 0,0-3,2-5,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,1 0,3 0,2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12353 57084,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,-1 6,1 0,-6 4,4 2,-2-2,2 1,2-3,4 5,-2-6,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12540 57086,'0'0,"-54"68,42-53,-2 4,6 2,-1-5,7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8848 57210,'0'0,"8"56,-4-40,2-3,0 8,0-7,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9005 57324,'0'0,"-28"57,20-40,-6 5,6 2,-4-2,2-3,1 6,-1-6,6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9290 57382,'0'0,"2"4,0 4,2 2,0 6,2-1,-2 2,-3 1,-1-3,0-1,0 1,0-6,0-3,2-4,-2 0,4-2,-2 0,4 0,-2 0,4-2,0 0,0 0,5 0,-5 2,2 0,6 0,-4 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8995 57539,'0'0,"50"-31,-39 31,-5 0,1 0,-1 9,-4 1,-2 4,0 0,0-3,-4 2,-5 3,5-6,-4 1,1-1,3-4,2 1,2-5,2-2,2 0,7 0,2 0,-1 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13235 59551,'0'0,"6"48,4-28,-4 3,2 4,-4-2,4-1,2 2,-2-5,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14753 59571,'0'0,"12"46,-4-27,0 4,11 6,-7 1,2-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16219 59591,'0'0,"0"8,4 2,0 4,4 1,0 4,0 0,0-1,3 3,-3-6,0-3,-2 0,1-8,-7-4,0-8,0 0,-7 4,-7 0,4 0,-3 2,1 0,0 2,4 0,-2 0,2 0,0 0,4 0,-2 2,6 4,0-2,0 4,0 0,4-4,6 7,0-5,2 3,4-1,2-4,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16556 59591,'0'0,"6"8,-2 4,-4 0,6 3,-4 2,0 4,2-3,-2 6,2-2,0 0,4 0,0 1,-2-6,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13674 59597,'0'0,"-12"0,12 10,0 6,4-3,4 6,-4-2,6 5,-2 2,4-8,-4 4,0-1,0-2,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17831 59830,'0'0,"-4"-57,0 38,2-9,-4 4,4 0,2 1,0 6,-4 6,4 3,0 4,0-2,0 4,6 2,2 0,2 4,6 8,-2-1,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13122 59702,'0'0,"48"-8,-39 4,1 0,-6-4,2-1,-6 3,0-2,-4 4,-4-3,-7 7,4 0,-5 0,2 3,3 3,-1 0,4-2,0 2,4-1,0 3,2 0,2 4,0 4,2-6,10 4,0 0,4-5,9-1,-4 1,-2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14435 59647,'0'0,"-16"0,10 0,0 0,-2 0,4 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4-1,0-1,0 2,6 0,0-4,6 6,-4-2,2-1,2 2,-8 1,-2 2,-2-2,0 4,0-5,-2-1,-2-4,-4 0,2-2,-2 0,2-4,4-2,0-1,2 3,0 0,0 0,2 0,4 4,2 0,2-4,4 2,2 0,0-2,-2 0,0 2,-3 0,2 0,-1 0,-8-1,4-2,-4-1,2 4,-4-6,4 4,-2 0,-4 2,0-4,-8 6,2 0,-2 0,0 0,-4 2,5 4,-3 2,5 0,-1-2,0 1,6-2,0 1,0 2,2 0,10-4,-3 4,10-4,7-4,0 5,-4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14767 59676,'0'0,"49"-5,-31 5,4 0,0 1,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15764 59671,'0'0,"0"11,0 1,0-2,4 4,4 0,0-2,0 2,-4-3,2-2,-2-5,-2 0,-2-8,0-5,0 1,2-3,-2-1,0 2,2 0,-2 1,2 4,-2-1,2 2,0 2,-2 0,3 2,1 4,-2 2,2 7,0-6,4 5,-8 2,3-6,1-1,-4-5,2 0,0-9,2-3,-4-2,2-4,2 5,-2-2,6 3,-8 4,6 0,-4 6,-2 0,4 0,0 0,-2 10,4-4,2 4,0 3,0-2,0 1,4 0,0 5,-4-4,5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13551 59686,'0'0,"-46"-12,38 12,-2 2,6 0,0-2,4 6,0-4,0 2,4 0,2-2,6 2,0 0,-2 2,0 1,-2-2,0 1,-6 2,4 0,0 0,-6-2,0 1,0-1,0-4,0 3,-4-3,0-2,0 0,2 0,0-2,2-3,0 1,2 0,6-1,8 3,-3-2,13 0,-5-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14669 59678,'0'0,"-33"16,27-8,4 0,-2 2,2-2,2 0,0 0,6 0,8-2,9-6,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15078 59694,'0'0,"-18"32,24-28,6 0,-8-4,8 0,-2 0,-2 0,-6-8,4 0,-6 0,0-2,0 2,0 0,-8 4,-4 2,3 2,-8 0,5 6,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15216 59702,'41'52,"-41"-54,-2 0,-2-8,2 0,2 2,-2 1,2-6,0 7,0 2,0 0,0 2,0 0,0-2,4 2,2 2,2 0,0 0,2 0,-2 2,2 6,-2-2,2 2,-4 5,2-6,-4 7,4 0,-6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14938 59680,'0'0,"20"50</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13396 59718,'0'0,"-34"-38,28 38,0 0,2 4,-2 6,6 2,0 2,0 0,0-2,0 0,8-5,0 1,0-8,-2 0,2 0,-6 0,4-8,2 1,-6 3,2-4,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,10 2,-4 0,6-3,6 1,-3-4,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18848 59686,'0'0,"2"36,6-16,0 3,0 2,0-2,8 7,-7-5,1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13833 59688,'0'0,"16"58,-4-46,-8-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13990 59688,'0'0,"-52"6,46 0,-4 2,2 1,3 0,5 3,0 0,0-2,17 3,-1-4,12-1,0-6,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11704 60107,'0'0,"67"-64,-25 32,25-7,33-13,19-4,12 6,6 5,-6 14,-8 11,-19 4,-31 8,-23 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17692 59718,'0'0,"-2"-20,0 18,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 4,2-2,0 0,0 6,6-6,10 1,-4-3,4 3,-2-9,-1 0,-1 0,-4-9,-8 3,0-3,0-3,-4 2,-8-2,4 6,-1 3,1 1,0 2,0 0,6 4,-2 1,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15216 59702,'0'0,"31"40,-23-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16357 59728,'0'0,"28"41,-20-37,4 3,1-5,1-2,-2 0,2 0,-4-9,-2 1,-4 1,-2-5,-2-6,0 5,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19684 59702,'0'0,"12"48,-4-33,0 10,4-9,2 4,-2-1,8 0,-3-7,-3-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13658 59724,'0'0,"50"-11,-34 11,0 0,11 0,-5 0,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18437 59726,'0'0,"0"54,0-38,8-1,-4-2,4 1,-3-3,-2-4,-3-3,4-4,-8-8,1 1,-2-8,-3 3,4-4,2 2,0-1,-2 4,4 3,-2 4,2-4,0 2,2 2,6-2,2 2,0 0,4 3,-4 1,-2 0,8 0,-8 5,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16668 59718,'0'0,"14"62,-6-48,5-2,1 0,-4-4,4-2,1-4,-3-2,0 0,-4-8,-4-5,-2 0,-2 1,0-3,-2 0,-4 11,0 0,-2 4,4 0,0 0,4 4,0 0,6 1,2 1,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16058 59724,'0'0,"-39"6,39 2,0 2,0 0,4-3,6 1,0 1,2-3,-3-4,7-2,-6 0,0-8,-4-1,-2-1,1 3,-5-3,0 2,-15 0,5 2,4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17821 59724,'0'0,"46"0,-17 0,-5 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16953 59775,'0'0,"4"-25,-12 25,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2 0,0-2,8 7,4 1,-2 1,2 1,-2 2,4 0,-10 0,4 0,-4 2,-4-2,0-2,0-2,0 0,-8-8,4 2,-4-2,-2 0,0 0,2-2,0-4,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18584 59824,'0'0,"55"-28,-47 22,-4-4,2 1,-6 3,0 1,-4 3,0 2,-6 0,2 0,0 4,0-1,-3 3,3 1,4-1,0 2,2-2,2 7,0-4,6-1,4 2,5-1,1-4,12-1,-4 0,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18762 59780,'0'0,"-29"12,25-6,2 3,2-2,0 3,0-2,6 5,-2-6,8 1,1-4,3 0,0-4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19990 59838,'0'0,"0"13,0-6,0-1,2-2,-2 4,2-2,-2-4,2 2,-2-6,0-8,0-2,0-1,-2-6,2 5,0 2,0 2,2 4,4 4,2 2,2 0,4 0,6 2,15 6,-3 5,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19070 59792,'0'0,"-45"0,38 4,3 4,2-4,2 4,0-4,4 4,5-4,1-4,-2 0,-1 0,1 0,0 0,-4-2,0-2,0 2,-2 2,0 0,-2 0,4 0,0 6,2 0,2-2,0 5,2-4,10 3,-6 0,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18872 59796,'0'0,"59"-2,-36 4,1 0,2-2,-5 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19164 59798,'0'0,"14"38,-8-27,-2-2,2-3,-1 0,-1-6,0 0,-2 0,0 0,0-4,-2-4,0-1,0-6,0 7,0 0,0-1,-2 2,2 3,0 4,2 0,2 0,-2 0,6 4,0 7,2-2,0 1,2 7,4-4,0-1,-2 0,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19396 59852,'0'0,"-24"-22,16 22,4 0,-2 0,0 0,6 6,0 1,0-1,0-3,4 5,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-1,0 1,0-1,0 1,0 0,0 12,6 5,0-2,2 7,0-2,-1 6,3 0,4-1,-10-2,0 0,-2-5,-2-2,0-6,0-3,-2-3,0 0,0-3,2-7,0-6,0 0,0-1,4-4,1 4,1 7,-2-4,0 10,-2-1,1 1,3 1,-4-1,8-6,2-2,-2 4,0-5,-4 2,-2 5,-4 2,0 4,-2-2,-2 2,2 0,0 0,0 0,0 0,2 4,0 0,0 2,0 3,6-4,2 5,0-4,0 2,0-4,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-4,-2 3,0-4,4 1,-6-1,4 4,1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19881 59814,'0'0,"-42"-16,38 16,0 6,0 1,4 0,0 1,0 2,2 1,6-6,0 3,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-2,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11688 60037,'0'0,"4"30,-4-19,0 3,0-3,0 3,-8-1,0 3,2-6,0 1,2-5,4 2,0-6,6-2,2-2,2-4,-2 0,4 4,-1-4,8 6,-3 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16598 60059,'0'0,"16"52,-12-33,2 5,2-9,-4 3,6-2,-4-1,2 0,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 1,0 5,0-4,0 2,2 2,6 0,-2 0,2 4,3-4,1 4,-4 0,2 8,-2 2,0 4,-1-3,-3 3,-2-1,-2-3,0-1,0-3,-6-6,-1 0,-1 0,0 0,0-8,0 3,2 1,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,7 0,-1 2,0-2,0-3,-2 3,-4 2,4-2,-3 0,-1 0,-2 0,2-2,0 1,0-3,-6 2,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-3 4,7 0,-4-2,4 6,-2 0,4-2,0 1,8 1,2 1,3-5,7-2,12 2,0-4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8726 60140,'0'323</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8217 60148,'0'293</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17196 60207,'0'0,"-4"26,6-18,2 0,0-2,-1-1,3-1,-2-4,2 0,-4-2,-2-4,0-1,0-1,0 0,0-1,0 1,0 3,0 1,0 0,6 4,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 8,-4-1,-2 1,2-1,-2 1,4 0,-3-8,1 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-1,0 3,0 0,0 2,0 4,2 0,-2 2,0 0,-2 4,6 2,-6 2,2 4,4-3,0 1,0 3,0-3,12-4,-6 1,7-3,1 0,-2-4,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8365 60247,'0'0,"0"65,2-51,-2-2,4 3,-2-4,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 2,0-1,0-4,-2 4,0-3,0-4,-2 1,4 3,-2 1,2 1,-4 1,4 3,0-1,0 2,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 5,-6-3,8 3,-6 3,4-5,-2 3,2 0,-4-4,4-2,-6-4,3 0,-1-4,-4 0,2 0,-4-4,2-2,2-7,-4 0,0-1,0-1,0-3,0-1,0 6,0 1,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,0 0,-2 6,2 6,2 3,-8 0,4 1,0-1,2 1,-4-6,2 6,2-2,2 0,-1-2,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17065 60193,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 2,0-1,0 1,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-4-6,-2 6,2 0,2 0,0 6,2-6,2 4,4 1,3 1,-1-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17655 60290,'0'0,"-2"-10,2 10,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10832 60445,'0'0,"-59"2,51 2,1 0,1 4,4-8,2 8,0-6,0 4,8 1,-1 0,5 3,0 3,4-2,-4 5,0 3,-3-4,-1 7,-6-6,-2 0,0-4,-2-2,-6-4,-3-5,-3-1,4 0,-4-7,2-3,4 0,2-2,2 2,3 4,1 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6736 60479,'0'0,"-17"0,5 3,6 10,-4-1,0 1,4 4,-4-3,8 3,-2-6,4-1,4 2,8-8,4 2,0-6,9 0,-3 0,-2 0,-3 0,-3-6,-8-6,2-2,-6 1,-2-4,-4 5,-6-3,-2 4,2 3,-3 0,-1 4,4 4,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,3 0,-1 0,0 0,10 0,-9 0,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9945 60497,'0'0,"-14"21,14-19,0 2,2-4,4 0,0 0,-4 0,1 0,2-4,-5 2,4-2,-4 2,0 1,-4 1,-1 0,0 0,1 0,2 1,-4 5,6-6,0 2,0 2,0-3,6 1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11070 60518,'0'0,"59"-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7646 60539,'0'0,"55"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11114 60566,'0'0,"53"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7640 60625,'0'0,"49"-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6947 60625,'0'0,"8"45,-8-31,0 1,0-4,0-1,0 0,4-6,-4 2,0-2,0-2,2-2,-2-2,0-8,0 2,0-2,0 0,0 1,0-4,2 5,-2 0,2 0,0 1,-2 5,8 0,-4 2,4 0,-2 0,-2 4,2 9,0-3,-4 7,1-5,1-1,-2-3,0 0,4-6,-6-2,4 0,-2 0,0-8,-2-2,8-1,-8-3,4-1,0 5,2 3,-4 1,4 2,-4 4,-2 0,2 2,4 6,-4-1,4 3,-6-2,4 5,2-7,2 3,-4-1,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8055 60625,'982'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9939 60666,'0'0,"24"27,-24-17,0 5,-4 1,-5 4,-2-4,-1 6,-2-9,0 2,0-5,2-6,-4-4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7197 60676,'0'0,"-18"-2,12 4,4 2,-2 0,2 5,2-1,0-1,0-1,0 2,6-4,2 2,0-6,0 0,-6 0,6 0,-4-2,0-4,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,1 2,3-2,6 2,-4 4,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7414 60682,'0'0,"-45"32,35-22,8 6,0 0,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7323 60701,'0'0,"58"17,-47-9,1-2,4 0,-2 4,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8599 60830,'0'0,"-31"-10,17 10,0 0,-2 4,2 0,0 2,-3-4,7 3,0 1,8 0,0-2,2 4,0-1,6-1,4-1,7 6,-1-1,4-2,2 6,-2-3,-4 6,-3-5,-9 3,2-3,-6-2,0 3,-6-4,-5-1,3-4,-2 0,-6-4,4 0,-2 0,2-4,-2-2,2 0,4 1,-1 1,5 2,-2-3,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5072 49828,'0'0,"22"9,-9 0,-1 7,0 1,0 6,0-1,0-2,-6 0,2-4,-4-5,2-1,0-6,-4 2,0-6,0-8,-2-6,0-4,0-1,0-7,0 4,0 2,4 0,4 2,-2 9,4-4,0 3,0 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5884 49998,'0'2484,"6019"-2484</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5010 50925,'0'0,"0"4,0 6,2 1,0 1,0 2,2 2,2 8,-4-7,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5296 51073,'0'0,"66"-17,-46 17,-1 0,-7 4,1 7,-11 1,-2-4,0 6,-4 0,-9-6,0 0,-1 0,-2-2,8-4,-6-2,6 0,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5326 51073,'0'0,"-4"54,10-34,0 0,-4 3,8 2,-2-5,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4988 51133,'0'0,"66"-12,-46 12,-4-4,5 2,-5 0,6 0,-8 2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5072 51239,'0'0,"16"-16,-6 16,-8 0,5 0,-1 0,-4 6,-2 2,0-2,0 2,0 2,0 2,-6 2,-3-2,3-1,-2-3,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,3-6,-1 4,0 2,6-4,-2 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5944 51239,'3244'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9190 51275,'0'2393</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8685 52086,'0'0,"8"48,-6-34,-2-5,8 7,-6-6,4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8818 52110,'0'0,"-44"55,27-31,1-1,-4 15,10-8,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8988 52112,'0'0,"12"49,-12-33,0 0,0-1,0 1,0 1,0-2,-2-3,2 0,0-6,0 2,0-6,6-2,-2 0,2 0,0 0,0 0,2 0,2 0,-1 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11863 52134,'0'0,"0"16,0-5,4 1,-4 4,0-1,0 1,0 3,0 0,0-3,0 1,-4-1,4-6,0-2,0-1,0-3,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8830 52241,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0-1,0 3,-10 2,-2 1,0 1,-2-6,7 6,-3-9,4 3,2-4,4-4,8-2,4 0,3 0,1-4,0 0,4 2,-8 2,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12479 52450,'0'0,"-51"50,39-31,-2 5,2-1,6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12344 52465,'0'0,"12"-1,-8 1,2 0,-2 1,0 3,2 4,0-2,0 5,2-1,-2-3,-2 1,2 0,2 0,-4-6,0 4,4-4,1-2,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12602 53479,'0'0,"0"8,0-1,0 3,0-1,0 8,0-4,0 7,0 6,0-10,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12990 53530,'0'0,"61"-10,-43 18,0-1,0 3,-8 4,-1 2,-7-2,-2 2,-2-4,-13-3,-1-1,-2-6,-2 2,2-4,1 0,7-4,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12994 53534,'0'0,"2"11,0-7,-2-2,0 4,0 2,0 0,0 8,0 0,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13004 53611,'0'0,"-2"62,2-34,6-2,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12328 53621,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-3,0-1,2 2,-4 2,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12720 53621,'0'0,"-45"50,36-34,-1 4,-12 6,10-2,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9239 53689,'2674'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12710 53757,'0'0,"57"-10,-51 18,-2-6,-4 7,0 1,-2 2,-10 0,2 1,2 0,0-3,-3 2,5-4,-2 4,6-6,-2 0,4-4,0 4,4-6,6 2,0-2,5 0,-1 0,0 0,2 0,-2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5201 54519,'0'0,"0"16,0-8,0 5,0-2,0 4,0 1,0-2,0 2,0-6,6 3,-6-7,6-4,-4 0,4-2,-6 0,4-8,0-1,-4-3,0 2,0-7,0 2,0 0,0-4,0 2,0 1,0 4,0 2,0 4,2 0,0 2,2 4,-2-5,0 5,0 0,4 9,3 1,-3 5,0 2,0 4,2 0,2-4,-4-2,4 2,-6-11,2-2,2-4,-4 0,0-2,0-10,0-4,-2-4,0-2,2-3,-4 6,4 2,-2 7,0 1,0 3,0 6,2 0,2 6,0 1,0 1,2 4,-4 0,1 4,-1 7,-2-4,6 2,-5-1,9 0,-4-7,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5882 54545,'0'2485,"6019"-2485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10260 55404,'0'0,"8"71,-8-49,4-2,-4 1,0-8,0 4,5-9,-5 2,2-8,0-2,0-2,-2-14,0 6,0-9,0-2,0-4,-2-1,0 0,2 0,0 9,0-1,0 6,0 5,0 3,2-4,4 8,-2 0,0 0,0 8,4 3,-2 9,2-1,0 7,4-4,0-2,-2 0,-2 0,0-7,-2-3,-1-3,-1-5,-2-2,-2 0,0-8,0-5,0-9,0-1,0-7,0 2,0 3,0 1,0 12,0 3,0 1,8 6,-5 0,5 2,2 0,-4 0,4 4,-2 8,-4 1,-2 5,0 3,0 3,2-2,0-2,6 9,-4-5,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9053 55720,'0'0,"39"-36,-19 32,4-5,4-1,0 3,-3 3,-9 4,-8 0,0 7,-8 7,0 3,-8 1,-4 2,2-4,1 0,1-9,8-5,8-2,15-2,-1-11,10-9,1-2,10-2,17 0,17-10,12-4,4 3,-21 16,-10 3,-30 13,-12 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10638 55551,'0'0,"0"-2,0 4,0 4,0 1,0-1,0 9,0-8,2 7,2-4,2 0,-6-6,2 1,2 1,-2-1,-2-5,0 0,0-11,0 2,-6 1,4-2,2 2,-4-2,2 5,2-4,0 3,0-2,0 0,2 5,2 1,-2 0,2 2,-2 0,0 0,2 7,0 1,0 4,0 0,5-2,-7 2,4-2,-2-2,0-4,-2-1,0-3,0 0,-2-7,0-3,4-4,0 0,-2 4,2 0,0-1,0 3,0 6,-4-2,2 4,2 0,-2 0,0 4,4 3,0 1,-1 0,1 3,0-4,2 5,0 2,2-2,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10892 55586,'0'0,"-16"-26,8 25,2 1,4 0,-1 0,-3 0,4 0,-4 1,4 5,-2 0,4 5,0-4,0 1,0 0,6-2,2 0,-1-4,1-2,-2 0,2 0,-2-2,-2-4,-2 2,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 8,2-8,-2 4,4 3,1-5,-3 3,-4-7,2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11128 55559,'0'0,"-31"33,19-15,0 2,0 4,2-3,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10991 55576,'0'0,"68"32,-54-22,0 0,4 1,1 0,-5 0,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9000 55665,'0'0,"-12"33,2-18,-6 0,6 1,-2 0,0-9,6 2,3-1,3-8,7 0,3 0,6 0,4 0,-2 0,4 0,-4 0,1 0,2 0,-3 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 55880,'0'0,"0"-2,0 10,4 0,-2 5,0-3,2 3,-2 0,-2 3,2 1,-2 2,0-3,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5877 56976,'2935'-1063</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8871 55938,'3016'1019</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4986 55968,'0'0,"58"-23,-44 23,-2 0,2 8,-4 7,-2-1,-6 3,1-3,-3 6,0-6,-5-3,-7 3,4-9,-8-3,2-2,0 0,4 0,-4 0,6-3,2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5227 55980,'0'0,"4"7,0-3,-2 4,0-2,-2 2,0 6,0-2,0 7,0-3,0-1,0 0,0 1,0-7,2-1,4-4,3 2,-1-4,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5002 56007,'0'0,"10"51,-8-35,6 6,-8-6,8 1,-8-5,4 0,0-1,-4-6,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56108,'0'0,"56"-10,-35 8,11 2,-12 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4831 56194,'0'0,"-35"42,27-30,0-4,2 2,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-1 0,1 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4863 56210,'0'0,"14"38,-12-24,2 2,-2 1,0-2,-2 1,4-1,0 1,-4-4,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12064 56646,'0'0,"0"8,0 1,2-1,-2 9,0-2,0-1,0 1,0 1,0-6,2 2,-2 0,0-3,2-5,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,1 0,3 0,2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12352 57030,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,-1 6,1 0,-6 4,4 2,-2-2,2 1,2-3,4 4,-2-5,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12539 57032,'0'0,"-54"68,42-53,-2 3,6 3,-1-5,7-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8847 57155,'0'0,"8"56,-4-40,2-3,0 8,0-8,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9004 57268,'0'0,"-28"57,20-40,-6 5,6 2,-4-3,2-2,1 6,-1-6,6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9289 57326,'0'0,"2"4,0 4,2 2,0 6,2-1,-2 2,-3 0,-1-2,0-1,0 1,0-6,0-3,2-4,-2 0,4-2,-2 0,4 0,-2 0,4-2,0 0,0 0,5 0,-5 2,2 0,6 0,-4 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8994 57482,'0'0,"50"-31,-39 31,-5 0,1 0,-1 9,-4 1,-2 4,0 0,0-3,-4 2,-5 2,5-5,-4 1,1-1,3-4,2 1,2-5,2-2,2 0,7 0,2 0,-1 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13234 59479,'0'0,"6"48,4-28,-4 2,2 5,-4-2,4-1,2 2,-2-6,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14752 59499,'0'0,"12"46,-4-28,0 5,11 6,-7 1,2-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16218 59519,'0'0,"0"8,4 2,0 3,4 2,0 4,0 0,0-1,3 3,-3-6,0-3,-2 0,0-9,-6-3,0-7,0-1,-6 4,-8 0,4 0,-3 2,1 0,0 2,4 0,-2 0,2 0,0 0,4 0,-2 2,6 4,0-2,0 4,0 0,4-5,6 8,0-5,2 3,4-1,2-4,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16554 59519,'0'0,"6"8,-2 4,-4-1,6 4,-4 2,0 4,2-3,-2 6,2-2,0-1,4 1,0 1,-2-6,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13673 59525,'0'0,"-12"0,12 10,0 5,4-2,4 6,-4-2,6 5,-2 2,4-8,-4 4,0-2,0-1,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17829 59756,'0'0,"-4"-57,0 39,2-10,-4 4,4 0,2 1,0 6,-4 6,4 4,0 3,0-2,0 4,6 2,2 0,2 4,6 7,-2 0,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13121 59629,'0'0,"48"-8,-39 4,1 0,-6-4,2-1,-6 3,0-2,-4 4,-4-3,-7 7,4 0,-5 0,2 3,3 3,-1 0,4-2,0 2,4-1,0 3,2 0,2 4,0 4,2-6,10 4,0 0,4-6,9 0,-4 1,-2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14434 59574,'0'0,"-16"0,10 0,0 0,-2 0,4 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4-1,0-1,0 2,6 0,0-4,6 6,-4-2,2-1,2 2,-8 1,-2 2,-2-2,0 3,0-4,-2-1,-2-4,-4 0,2-2,-2 0,2-4,4-2,0-1,2 4,0-1,0 0,2 0,4 4,2 0,2-4,4 2,2 0,0-2,-2 0,0 2,-3 0,2 0,-1 0,-8-1,4-2,-4-1,2 4,-4-6,4 4,-2 0,-4 2,0-4,-8 6,2 0,-2 0,0 0,-4 2,5 4,-3 2,5 0,-1-2,0 1,6-2,0 1,0 2,2 0,10-4,-3 4,10-5,7-3,0 5,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14766 59603,'0'0,"49"-5,-31 5,4 0,0 1,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15763 59598,'0'0,"0"11,0 1,0-2,4 4,4 0,0-2,0 1,-4-2,2-2,-2-5,-2 0,-2-8,0-5,0 1,2-2,-2-2,0 2,2 0,-2 1,2 4,-2-1,2 2,0 2,-2 0,3 2,1 4,-2 2,2 7,0-6,4 5,-8 2,3-7,1 0,-4-5,2 0,0-9,2-2,-4-3,2-4,2 5,-2-2,6 3,-8 4,6 0,-4 6,-2 0,4 0,0 0,-2 10,4-4,2 4,0 3,0-2,0 1,4 0,0 4,-4-3,5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13550 59613,'0'0,"-46"-12,38 12,-2 2,6 0,0-2,4 6,0-4,0 2,4 0,2-2,6 2,0 0,-2 2,0 1,-2-2,0 1,-6 2,4 0,0 0,-6-3,0 2,0-1,0-4,0 3,-4-3,0-2,0 0,2 0,0-2,2-3,0 1,2 0,6-1,8 3,-3-1,13-1,-5-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14668 59605,'0'0,"-33"16,27-8,4 0,-2 2,2-2,2 0,0 0,6 0,8-3,9-5,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15077 59621,'0'0,"-18"32,24-28,6 0,-8-4,8 0,-2 0,-2 0,-6-8,4 0,-6 0,0-2,0 2,0 0,-8 4,-4 2,3 2,-8 0,5 6,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15215 59629,'41'52,"-41"-54,-2 0,-2-8,2 0,2 2,-2 1,2-6,0 7,0 2,0 0,0 2,0 0,0-2,4 2,2 2,2 0,0 0,2 0,-2 2,2 6,-2-2,2 2,-4 5,2-6,-4 7,4 0,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14937 59607,'0'0,"20"50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13395 59645,'0'0,"-34"-38,28 38,0 0,2 4,-2 6,6 2,0 2,0 0,0-2,0-1,8-4,0 1,0-8,-2 0,2 0,-6 0,4-8,2 1,-6 4,2-5,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,10 2,-4-1,6-2,6 1,-3-4,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18846 59613,'0'0,"2"36,6-16,0 2,0 3,0-2,8 7,-7-5,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13832 59615,'0'0,"16"58,-4-47,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13989 59615,'0'0,"-52"6,46 0,-4 2,2 1,3 0,5 3,0 0,0-3,17 4,-1-4,12-1,0-6,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11703 60031,'0'0,"67"-64,-25 33,25-8,33-13,19-3,12 5,6 5,-6 15,-8 10,-19 4,-31 8,-23 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17690 59645,'0'0,"-2"-20,0 18,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 4,2-2,0 0,0 6,6-7,10 2,-4-3,4 3,-2-9,-1 0,-1 0,-4-9,-8 3,0-3,0-2,-4 1,-8-2,4 6,-1 3,1 1,0 2,0 0,6 4,-2 1,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15215 59629,'0'0,"31"40,-23-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16355 59655,'0'0,"28"40,-20-36,4 3,1-5,1-2,-2 0,2 0,-4-9,-2 1,-4 1,-2-4,-2-7,0 5,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19682 59629,'0'0,"12"48,-4-34,0 11,4-9,2 4,-2-1,8 0,-3-7,-3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13657 59651,'0'0,"50"-11,-34 11,0 0,11 0,-5 0,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18435 59653,'0'0,"0"53,0-37,8-1,-4-2,4 1,-3-3,-2-4,-3-3,4-4,-8-8,1 1,-2-8,-3 3,4-4,2 2,0-1,-2 4,4 4,-2 3,2-4,0 2,2 2,6-2,2 2,0 0,4 3,-4 1,-2 0,8 0,-8 5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16666 59645,'0'0,"14"61,-6-47,5-2,1 0,-4-4,4-2,1-4,-3-2,0 0,-4-8,-4-5,-2 0,-2 1,0-3,-2 0,-4 12,0-1,-2 4,4 0,0 0,4 4,0-1,6 2,2 1,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16057 59651,'0'0,"-39"6,39 2,0 2,0-1,4-2,6 1,0 1,2-3,-3-4,7-2,-6 0,0-8,-4-1,-2-1,1 4,-5-4,0 2,-15 0,5 2,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17819 59651,'0'0,"46"0,-17 0,-5 2,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16951 59701,'0'0,"4"-24,-12 24,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2-1,0-1,8 7,4 1,-2 1,2 1,-2 2,4 0,-10 0,4 0,-4 2,-4-2,0-2,0-2,0 0,-8-8,4 1,-4-1,-2 0,0 0,2-1,0-5,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18582 59750,'0'0,"55"-28,-47 22,-4-4,2 1,-6 3,0 1,-4 3,0 2,-6 0,2 0,0 4,0-1,-3 3,3 1,4-1,0 2,2-2,2 7,0-4,6-1,4 2,5-1,1-4,12-1,-4 0,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18760 59706,'0'0,"-29"12,25-6,2 3,2-2,0 3,0-2,6 5,-2-6,8 1,1-4,3 0,0-4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19988 59764,'0'0,"0"13,0-6,0-1,2-2,-2 4,2-2,-2-4,2 2,-2-6,0-8,0-2,0-1,-2-6,2 5,0 2,0 2,2 4,4 4,2 2,2 0,4 0,6 2,15 6,-3 5,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19068 59718,'0'0,"-45"0,38 4,3 4,2-4,2 4,0-4,4 4,5-4,1-4,-2 0,-1 0,1 0,0 0,-4-2,0-2,0 2,-2 2,0 0,-2 0,4 0,0 6,2 0,2-2,0 5,2-4,10 3,-6 0,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18870 59722,'0'0,"59"-2,-36 4,1 0,2-2,-5 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19162 59724,'0'0,"14"38,-8-27,-2-2,2-3,-1 0,-1-6,0 0,-2 0,0 0,0-4,-2-4,0-1,0-6,0 7,0 0,0-1,-2 2,2 3,0 4,2 0,2 0,-2 0,6 4,0 7,2-2,0 1,2 7,4-4,0-1,-2 0,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19394 59778,'0'0,"-24"-22,16 22,4 0,-2 0,0 0,6 6,0 1,0-1,0-3,4 5,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-1,0 1,0-1,0 1,0 0,0 12,6 5,0-2,2 7,0-3,-1 7,3 0,4-1,-10-2,0 0,-2-5,-2-2,0-7,0-2,-2-3,0 0,0-3,2-6,0-7,0 0,0-1,4-4,1 4,1 7,-2-4,0 10,-2-1,1 1,3 1,-4 0,8-7,2-2,-2 4,0-5,-4 2,-2 5,-4 2,0 4,-2-2,-2 2,2 0,0 0,0 0,0 0,2 4,0 0,0 2,0 3,6-4,2 5,0-4,0 2,0-4,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-4,-2 3,0-4,4 1,-6-1,4 4,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19879 59740,'0'0,"-42"-16,38 16,0 6,0 1,4 0,0 1,0 2,2 1,6-6,0 3,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-2,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11687 59961,'0'0,"4"30,-4-19,0 3,0-3,0 3,-8-1,0 3,2-6,0 0,2-4,4 2,0-6,6-2,2-2,2-4,-2 0,4 4,-1-3,8 5,-3 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16596 59983,'0'0,"16"52,-12-33,2 5,2-10,-4 4,6-2,-4-1,2 0,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 1,0 5,0-4,0 2,2 2,6 0,-2 0,2 4,3-4,1 4,-4 0,2 8,-2 2,0 4,-1-3,-3 3,-2-1,-2-3,0-1,0-3,-6-6,-1 0,-1 0,0 0,0-8,0 3,2 1,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,7 0,-1 2,0-2,0-3,-2 3,-4 2,4-2,-3 0,-1 0,-2 0,2-2,0 1,0-3,-6 2,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-3 4,7 0,-4-2,4 6,-2 0,4-2,0 1,8 1,2 1,3-5,7-2,12 2,0-4,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8725 60064,'0'320</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8217 60072,'0'290</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17194 60130,'0'0,"-4"26,6-18,2 0,0-2,-1-1,3-1,-2-4,2 0,-4-2,-2-4,0-1,0-1,0 0,0-1,0 1,0 3,0 1,0 0,6 4,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 8,-4-1,-2 1,2-1,-2 1,4 0,-3-8,1 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-1,0 3,0 0,0 2,0 4,2 0,-2 2,0 0,-2 4,6 2,-6 2,2 4,4-3,0 1,0 3,0-3,12-4,-6 1,7-3,1 0,-2-4,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8365 60170,'0'0,"0"64,2-50,-2-2,4 3,-2-4,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 2,0-1,0-4,-2 4,0-2,0-5,-2 1,4 3,-2 1,2 1,-4 1,4 3,0-1,0 2,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 5,-6-3,8 3,-6 3,4-5,-2 3,2 0,-4-5,4-1,-6-4,3 0,-1-4,-4 0,2 0,-4-4,2-2,2-6,-4-1,0-1,0-1,0-3,0-1,0 6,0 1,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,0 0,-2 6,2 6,2 3,-8 0,4 1,0-1,2 1,-4-6,2 5,2-1,2 0,-2-2,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17063 60116,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 2,0-1,0 1,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-4-6,-2 6,2 0,2 0,0 6,2-6,2 4,4 1,3 1,-1-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17653 60213,'0'0,"-2"-10,2 10,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10831 60366,'0'0,"-59"2,51 2,1 0,1 4,4-8,2 8,0-6,0 4,8 1,-1 0,5 3,0 3,4-2,-4 5,0 3,-3-5,-1 8,-6-6,-2 0,0-4,-2-2,-6-4,-3-5,-3-1,4 0,-4-7,2-3,4 0,2-2,2 2,3 4,1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6736 60400,'0'0,"-17"0,5 3,6 10,-4-1,0 1,4 4,-4-3,8 3,-2-7,4 0,4 2,8-8,4 2,0-6,9 0,-3 0,-2 0,-3 0,-3-6,-8-6,2-2,-6 2,-2-5,-4 5,-6-3,-2 4,2 3,-3 0,-1 4,4 4,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,3 0,-1 0,0 0,10 0,-9 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9944 60418,'0'0,"-14"21,14-19,0 2,2-4,4 0,0 0,-4 0,1 0,2-4,-5 2,4-2,-4 2,0 1,-4 1,-1 0,0 0,1 0,2 1,-4 5,6-6,0 2,0 2,0-3,6 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11069 60439,'0'0,"59"-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7646 60460,'0'0,"55"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11113 60487,'0'0,"53"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7640 60545,'0'0,"49"-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6947 60545,'0'0,"8"45,-8-31,0 1,0-5,0 0,0 0,4-6,-4 2,0-2,0-2,2-2,-2-2,0-8,0 2,0-2,0 0,0 2,0-5,2 5,-2 0,2 0,0 1,-2 5,8 0,-4 2,4 0,-2 0,-2 4,2 9,0-3,-4 7,1-6,1 0,-2-3,0 0,4-6,-6-2,4 0,-2 0,0-8,-2-2,8-1,-8-2,4-2,0 5,2 3,-4 1,4 2,-4 4,-2 0,2 2,4 6,-4-1,4 3,-6-2,4 5,2-7,2 2,-4 0,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8055 60545,'981'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9938 60586,'0'0,"24"27,-24-17,0 4,-4 2,-5 4,-2-4,-1 6,-2-9,0 2,0-5,2-6,-4-4,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7197 60596,'0'0,"-18"-2,12 4,4 2,-2 0,2 5,2-1,0-2,0 0,0 2,6-4,2 2,0-6,0 0,-6 0,6 0,-4-2,0-4,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,1 2,3-2,6 2,-4 4,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7414 60602,'0'0,"-45"31,35-21,8 6,0 0,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7323 60621,'0'0,"58"16,-47-8,1-2,4 0,-2 4,-2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8598 60749,'0'0,"-30"-10,16 10,0 0,-2 4,2 0,0 2,-3-4,7 2,0 2,8 0,0-2,2 4,0-1,6-1,4-1,7 6,-1-1,4-2,2 6,-2-3,-4 6,-4-5,-8 2,2-2,-6-2,0 3,-6-4,-4-1,2-4,-2 0,-6-4,4 0,-2 0,2-4,-2-2,2 0,4 1,-1 1,5 2,-2-3,4 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2192,78 +2192,78 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34054,'0'0,"-2"-8,2 11,0 10,2-3,4 4,0-3,4 3,-4-2,4-4,-4-5,0 3,4-6,2 0,-4-2,-2-9,0-1,-2 0,3-5,-5 3,-2 0,0 3,0 2,0 3,0 6,-2-6,0 6,2 6,0 8,2-2,2 8,2-3,2 7,-4-1,4 2,-4 0,-4 2,0-2,0-7,0-1,-2-1,-4-3,-2-4,0-5,-2-4,3 0,1 0,4-13,2 2,0-1,4-3,9-1,3 6,0-4,16-5,-4 4,-3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3110 34177,'0'764,"807"-764</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5463 34455,'0'0,"20"24,-12-16,-4-2,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9616 34517,'0'0,"42"-38,-26 22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9343 34721,'0'0,"58"-30,-36 21,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5752 34682,'0'0,"20"9,-8-3,-2 0,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9074 34856,'0'0,"42"-27,-26 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6080 34834,'0'0,"41"14,-33-8,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8774 34947,'0'0,"40"-13,-30 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6368 34934,'0'0,"18"0,-10 0,7 9,1-7,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4164 34943,'0'0,"-12"23,4-7,0 0,-2 6,-4-5,2 6,0-2,-1 3,5-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4021 34974,'0'0,"22"-16,-12 18,2 6,-2 6,5 2,-1-4,-2 8,0-2,2 2,-4-5,-2-1,-4-4,4-4,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6773 35028,'0'0,"46"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8455 35046,'0'0,"44"-7,-22 5,-8-1,1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7075 35062,'0'0,"48"21,-31-21,-1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8145 35120,'0'0,"51"-1,-41-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7396 35120,'0'0,"46"0,-40 4,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7755 35140,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7813 35441,'0'0,"14"40,-12-32,2-2,0-4,-2 4,0-4,-2-10,0 6,0-12,0 6,-2-7,0 2,-2-1,2-1,0 1,0-2,-2 1,4-1,-2 5,2 1,0 3,0 3,0 2,2 4,4 6,-2-1,8 8,-4-5,6 0,-4 3,6-5,0 0,-2-3,4-3,-5 0,3-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7815 35363,'0'0,"50"58,-16-8,8 14,5 10,3 6,-2-9,3-5,2-4,-19-15,-4-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10730 36042,'0'0,"-18"45,16-33,2-3,0-1,0-2,0 0,2-12,2 0,-2 0,-2-5,0-3,4-1,-2 1,-2 0,4-1,-4 4,0 1,0 8,0 4,0 8,2-1,0 4,0 1,4-2,0-2,2 3,0-3,2-2,2-3,1-5,1 0,0 0,2-9,-4-1,0-7,0 7,-2-6,-4 4,-4-4,-2 0,0 0,0 4,-8 4,2 2,0 6,-8 0,2 6,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8461 36126,'0'0,"0"44,0-34,0 4,0-6,0 4,0-8,0 2,0-14,2-2,-2-2,0-2,0-4,6 3,-6-4,2 1,-2 1,0 2,2 6,-2 0,0 9,6 0,-6 5,4 6,0 6,4-3,0 1,0 2,4-4,-6-3,4 0,-3-2,-3-4,2-4,1 0,-7-4,4-6,-4 0,8-3,-8-6,2 3,2 3,-2-1,-2 3,0 2,4 4,0 1,-2 2,2 2,-2 2,0 2,4 1,-4 4,6 4,-2-1,4-1,-2 1,4 1,0-1,0-5,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8967 36060,'0'0,"-29"37,23-20,-2 4,4-2,-4 9,4-8,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10424 36060,'0'0,"0"37,0-27,0-1,4 1,2-3,-4-1,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10027 36081,'0'0,"28"-12,-24 12,4-4,2 4,0-1,-4 1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10283 36074,'0'0,"46"-10,-30 10,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10546 36065,'0'0,"-28"34,28-26,0-1,4 1,4-4,2-2,-2 0,6-2,-4 0,4-2,-3-8,3 2,-6-3,-6 3,-2-2,0 3,-2 0,-6 4,-6 3,5 0,-3 0,4 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9586 36107,'0'0,"46"-26,-34 19,2 3,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8749 36069,'0'0,"-8"51,4-32,4-2,-4 3,0-2,4-4,0 0,-2-4,2-7,0 1,2-9,2-5,-2-2,0-2,-2-2,4 4,-4-4,0 5,0-2,0 1,0 4,0-3,0 5,0 0,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-3 1,1 3,0-3,6 5,-4-3,4 3,-6-7,2 0,0 3,-2-2,-2-5,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10315 36070,'0'0,"0"44,4-30,0-5,-4-1,6-1,0-1,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9323 36093,'0'0,"34"-6,-22 10,1 0,-1 6,-3-3,3 3,-2 7,-6-2,0 1,-2 3,-2-4,0-1,-2 2,-6-3,-2-7,0 4,4-8,1 2,1-2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10212 36089,'0'0,"-37"21,33-15,0 6,2-1,2-3,0-1,2 1,4-4,2 0,3-4,-1 0,4-2,-2-4,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9754 36105,'0'0,"37"-8,-33 6,12 0,-8 2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9553 36093,'0'0,"-8"52,8-35,0 1,0 0,0 0,4-4,0-3,4-5,-4-2,9-4,-5 0,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8870 36097,'0'0,"48"31,-38-20,0-3,2-3,7 3,-4-6,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9902 36097,'0'0,"0"33,0-16,0-10,0 5,0 0,0-3,4 0,-4-5,8 2,-4-4,0-2,4 0,-2 0,-2 0,2 0,-4-2,6-2,-2 0,-4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10023 36110,'0'0,"0"44,0-32,2-4,0-2,0 1,4-3,-2-4,0 0,-4 0,6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9742 36116,'0'0,"-8"50,8-38,0-1,4-2,-4 1,4-2,-2 0,-2-6,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10051 36128,'0'0,"42"-4,-36 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9313 36135,'0'0,"4"35,0-16,-4-6,4 3,0-8,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9582 36168,'0'0,"50"-19,-34 17,-10-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8759 36178,'0'0,"45"-16,-35 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9770 36182,'0'0,"47"-10,-37 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10065 36196,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9590 36251,'0'0,"10"-8,-4 6,6 2,-6 0,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6785 36801,'0'0,"16"-9,-12 7,4-2,-2 4,2 0,-6 0,3 6,-1-3,0 3,-4-4,0 5,0 1,-4-4,0 0,-1 4,3-8,2 3,-4-3,4 2,4-2,-2 0,7 4,-3-2,0 4,0 2,2 1,0-1,-2 1,2 0,-6 1,-2-4,0 1,0-3,0 3,-8-7,0 0,4 6,-8-6,6 0,-4 0,-1 0,5 0,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4186 36868,'0'0,"-8"0,4 6,0 6,-2 2,0 8,-2 12,2 10,0 0,6-3,0-14,8-4,0-6,0-7,10 8,-2-2,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5325 36876,'0'0,"-8"0,0 3,3 3,-1-3,0 5,2 0,0-2,2 5,2-6,0 1,0 0,2 0,6 2,0 0,3-2,3 2,-2 2,0 2,-2 1,-2 2,-2 1,-6-4,0-2,-6 5,0-7,2 1,-8-7,2 4,-2-6,0 0,1 0,3-2,0-4,4 1,0-5,2 2,2-3,0 3,2-4,2 4,4-4,2 1,-4 2,5 1,-3 4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6469 36904,'0'0,"30"-16,-18 16,-2 0,1 8,3-2,-6 0,0 3,-2-4,-2 7,-4-8,0 8,0-8,-4 4,-2-4,-6 0,4 0,-2-4,-3 2,5-2,-4 0,8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4755 36902,'0'0,"12"38,-4-24,2 6,2 0,-2 4,2-2,0 2,0 1,-4-2,0 1,-4-4,-4 10,-12-12,6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6475 36904,'0'0,"0"18,2-6,0-6,-2 6,8 0,-8 0,6-2,-4 0,-2 0,0-3,2 0,-2-5,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6650 36921,'0'0,"6"31,-6-21,0-2,0 2,0 0,0 0,6-4,-4-1,2 2,0-5,4 2,-4-4,4 0,-2 0,2 0,-2 0,2 0,3-4,-7 4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5591 36990,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4262 37024,'0'0,"0"18,2-10,-1 2,1 1,-2-1,2 0,2 1,-4-5,0 0,6-2,-4-4,-2-8,0 0,0 0,0 1,0-1,-2-5,2 1,0 6,0 0,0 0,0 0,2 0,2 6,0 0,-4 0,7 0,1 8,-6 0,6 4,0-2,-2 1,-4 3,4-7,-4 1,0-2,0-4,-2-2,0-8,0 0,0-5,0 3,0-7,0 7,0 2,4-4,-2 8,0-3,2 7,0 0,-2 0,2 5,2 1,-4 2,4 0,0 2,-2 0,8 3,-6 1,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4466 37062,'0'0,"-4"34,4-20,0-6,0 3,0-5,4-3,-4-3,2-3,2-5,-4-1,0-5,0 4,0-5,0-2,0 7,0-4,0 6,0 2,2 0,-2 3,0 1,4 2,0 0,-2 0,4 5,1 1,-1 6,-2-4,4 0,0 6,2-1,0-1,-2-1,2 5,-4-7,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4683 37036,'0'0,"-36"33,28-17,2-7,0 7,6-5,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4611 37040,'0'0,"34"31,-20-23,-4 2,4 3,-8-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6094 37040,'0'0,"16"0,-12 0,5 0,-3 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5645 37052,'0'0,"26"-4,-16 4,2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4488 37094,'0'0,"39"-3,-27 3,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6364 37148,'822'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6380 37322,'0'0,"-16"19,12-13,-4-1,6-1,-4 4,2 0,0-8,4 4,-2-4,2 3,6-3,-2 0,4 0,0-3,0-1,0 4,0 0,2 0,-2 0,-1 0,1 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6528 37347,'0'0,"-9"-4,7 8,-2-2,2 3,2-3,0-2,0 8,2-8,6 0,-1 0,-3 0,2 0,4-6,-8 4,4-2,-2 1,-2-5,-2 4,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-3 0,3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6953 37333,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6726 37337,'0'0,"27"-4,-13 4,-4 0,2 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6409 37337,'0'0,"10"27,-8-13,2-2,-2 1,0-1,0-2,4 2,-2-2,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7009 37341,'0'0,"4"33,-2-21,2-3,-2 1,0 0,2-2,2 0,-2-3,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6733 37364,'0'0,"4"26,-4-21,0 3,8 0,-4-4,0 0,-2 4,4-4,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6568 37386,'0'0,"-20"17,20-11,0 4,0-4,2 0,4 0,2 0,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-2,-4-2,2 2,-4 0,0 0,-6 1,0 1,-2 0,-2 4,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6777 37388,'0'0,"32"0,-26 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6795 37453,'0'0,"34"0,-21 0,-7 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7031 37457,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,3-2,-5 2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34054,'0'0,"-2"-8,2 11,0 10,2-3,4 3,0-2,4 3,-4-2,4-4,-4-5,0 3,4-6,2 0,-4-2,-2-9,0-1,-2 0,3-5,-5 4,-2-1,0 3,0 2,0 3,0 6,-2-6,0 6,2 6,0 8,2-2,2 7,2-2,2 7,-4-1,4 2,-4-1,-4 3,0-2,0-7,0-2,-2 0,-4-3,-2-4,0-5,-2-4,3 0,1 0,4-13,2 2,0-1,4-2,9-2,3 6,0-4,16-5,-3 4,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3111 34176,'0'756,"809"-756</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5470 34451,'0'0,"20"24,-12-17,-4-1,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9634 34512,'0'0,"42"-37,-26 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9360 34714,'0'0,"58"-30,-36 22,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5760 34676,'0'0,"20"8,-8-2,-2 0,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9090 34848,'0'0,"42"-27,-26 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6089 34826,'0'0,"41"14,-33-8,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8790 34938,'0'0,"40"-13,-30 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6377 34925,'0'0,"18"0,-10 0,7 9,1-7,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4168 34934,'0'0,"-12"23,4-7,0-1,-2 7,-5-5,3 6,0-2,-1 2,5-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4024 34965,'0'0,"22"-16,-12 18,2 6,-2 6,5 1,-1-3,-2 8,1-2,1 2,-4-5,-2-2,-4-3,4-4,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6783 35018,'0'0,"46"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8470 35036,'0'0,"44"-7,-22 5,-8-1,1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7086 35052,'0'0,"48"21,-31-21,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8159 35109,'0'0,"51"-1,-41-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7408 35109,'0'0,"46"0,-40 4,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7768 35129,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7826 35427,'0'0,"14"40,-12-32,2-3,0-3,-2 4,0-4,-2-10,0 6,0-11,0 5,-2-7,0 2,-2-1,2-1,0 1,0-1,-2 0,4-1,-2 5,2 1,0 3,0 3,0 2,2 4,4 6,-2-1,8 8,-4-5,6 0,-4 3,6-6,0 1,-2-3,4-3,-5 0,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7828 35350,'0'0,"50"57,-16-7,8 13,5 10,4 7,-3-10,3-5,2-3,-19-16,-4-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10751 36022,'0'0,"-18"45,16-34,2-2,0-1,0-2,0 0,2-12,2 0,-2 0,-2-5,0-2,4-2,-2 1,-2 0,4-1,-4 4,0 1,0 8,0 4,0 8,2-1,0 4,0 1,4-2,0-2,2 3,0-4,2-1,2-3,1-5,1 0,0 0,2-9,-4 0,0-8,0 7,-2-6,-4 4,-4-4,-2 0,0 1,0 3,-8 4,2 2,0 6,-8 0,2 6,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8476 36105,'0'0,"0"44,0-34,0 4,0-7,0 5,0-8,0 2,0-14,2-2,-2-1,0-3,0-4,6 3,-6-4,2 1,-2 2,0 1,2 6,-2 0,0 9,6 0,-6 5,4 6,0 6,4-4,0 2,0 2,4-4,-6-3,4 0,-3-2,-3-4,2-4,1 0,-7-4,4-6,-4 0,8-3,-8-6,2 3,2 3,-2 0,-2 2,0 2,4 4,0 1,-2 2,2 2,-2 2,0 2,4 1,-4 4,6 4,-2-2,4 0,-2 1,4 1,0-1,0-5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8983 36040,'0'0,"-29"36,23-19,-2 4,4-2,-4 9,4-9,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10444 36040,'0'0,"0"36,0-26,0-1,4 1,2-3,-4-1,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10046 36061,'0'0,"28"-12,-24 12,4-4,2 4,0-1,-4 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10302 36054,'0'0,"47"-10,-31 10,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10566 36045,'0'0,"-28"33,28-25,0-1,4 1,4-4,2-2,-2 0,6-2,-4 0,4-2,-3-8,3 2,-6-3,-6 4,-2-3,0 3,-2 0,-6 4,-6 3,5 0,-3 0,4 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9604 36086,'0'0,"46"-25,-34 18,2 3,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8764 36049,'0'0,"-8"50,4-31,4-2,-4 3,0-2,4-5,0 1,-2-4,2-7,0 1,2-9,2-5,-2-2,0-2,-2-1,4 3,-4-4,0 5,0-2,0 1,0 4,0-3,0 6,0-1,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-3 0,2 4,-1-3,6 5,-4-3,4 3,-6-7,2 0,0 3,-2-3,-2-4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10335 36050,'0'0,"0"43,4-29,0-5,-4-1,6-1,0-1,-6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9340 36073,'0'0,"34"-6,-22 10,1 0,-1 5,-3-2,3 3,-2 7,-6-2,0 1,-2 3,-2-5,0 0,-2 2,-6-3,-2-7,0 4,4-8,1 2,1-2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10231 36069,'0'0,"-37"20,33-14,0 6,2-1,2-3,0-1,2 1,4-4,2 0,3-4,-1 0,4-2,-2-4,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9772 36084,'0'0,"37"-8,-33 7,12-1,-8 2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9571 36073,'0'0,"-8"51,8-34,0 1,0-1,0 1,4-4,0-3,4-5,-4-2,9-4,-5 0,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8886 36076,'0'0,"48"31,-38-20,0-3,2-3,7 3,-4-6,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9920 36076,'0'0,"0"33,0-16,0-10,0 5,0 0,0-3,4 0,-4-6,8 3,-4-4,0-2,5 0,-3 0,-2 0,2 0,-4-2,6-2,-2 0,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10042 36089,'0'0,"0"44,0-32,2-4,0-2,0 1,4-3,-2-4,0 0,-4 0,6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9760 36095,'0'0,"-8"50,8-38,0-1,4-3,-4 2,4-2,-2 0,-2-6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10070 36107,'0'0,"42"-4,-36 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9330 36114,'0'0,"4"35,0-16,-4-7,4 4,0-8,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9600 36147,'0'0,"50"-19,-34 17,-10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8774 36157,'0'0,"46"-16,-36 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9788 36161,'0'0,"47"-10,-37 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10084 36175,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9608 36229,'0'0,"10"-8,-4 6,6 2,-6 0,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6795 36774,'0'0,"16"-9,-12 7,4-2,-2 4,2 0,-6 0,4 6,-2-3,0 3,-4-5,0 6,0 1,-4-4,0 0,-2 4,4-8,2 3,-4-3,4 2,4-2,-2 0,8 4,-4-2,0 4,0 2,2 1,0-1,-2 1,2 0,-6 0,-2-3,0 1,0-3,0 3,-8-7,0 0,4 6,-8-6,6 0,-4 0,-2 0,6 0,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4190 36840,'0'0,"-8"0,4 6,0 6,-2 2,0 7,-2 13,2 10,0-1,6-2,0-15,8-3,0-6,0-7,10 8,-2-2,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5332 36848,'0'0,"-8"0,0 3,3 3,-1-3,0 5,2-1,0-1,1 5,3-6,0 1,0 0,3 0,5 2,0 0,3-2,3 2,-2 2,0 2,-2 0,-2 3,-2 1,-6-4,0-2,-6 5,0-7,2 1,-8-7,2 4,-2-6,0 0,1 0,3-2,0-4,3 1,1-5,2 2,2-3,0 3,2-4,2 4,5-4,1 1,-4 3,5 0,-3 4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6479 36875,'0'0,"30"-15,-18 15,-2 0,1 8,3-2,-6-1,0 4,-2-4,-2 7,-4-8,0 8,0-8,-4 4,-2-4,-6 0,4 0,-2-4,-3 2,5-2,-4 0,8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4760 36874,'0'0,"12"37,-4-23,2 6,2 0,-2 3,2-1,0 2,0 1,-4-3,0 2,-4-4,-4 10,-12-12,6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6485 36875,'0'0,"0"18,2-6,0-6,-2 6,8 0,-8 0,6-2,-4 0,-2-1,0-2,2 0,-2-5,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6660 36892,'0'0,"6"31,-6-21,0-2,0 2,0 0,0 0,6-5,-4 0,2 2,0-5,4 2,-4-4,4 0,-2 0,2 0,-2 0,2 0,3-4,-7 4,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5598 36961,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4266 36994,'0'0,"0"18,2-10,-1 2,1 1,-2-1,2 0,2 1,-4-6,0 1,6-2,-4-4,-2-8,0 1,0-1,0 1,0-1,-2-5,2 1,0 6,0 0,0 0,0 0,2 0,2 6,0 0,-4 0,7 0,1 8,-6 0,6 4,0-2,-2 1,-4 3,4-7,-4 1,0-3,0-3,-2-2,0-7,0-1,0-5,0 3,0-7,0 7,0 2,4-4,-2 8,0-3,2 7,0 0,-2 0,2 5,2 1,-4 2,4 0,0 2,-2 0,8 3,-6 1,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4470 37032,'0'0,"-4"34,4-21,0-5,0 3,0-5,4-3,-4-3,2-3,2-5,-4-1,0-4,0 3,0-5,0-2,0 7,0-4,0 6,0 2,2 0,-2 3,0 1,4 2,0 0,-2 0,4 5,1 1,-1 6,-2-4,5 0,-1 6,2-1,0-1,-2-1,2 4,-4-6,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4688 37006,'0'0,"-36"33,28-17,2-7,0 6,6-4,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4616 37010,'0'0,"34"31,-20-23,-4 2,4 3,-8-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6103 37010,'0'0,"16"0,-12 0,5 0,-3 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5652 37022,'0'0,"27"-4,-17 4,2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4492 37064,'0'0,"40"-3,-28 3,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6373 37117,'824'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6389 37289,'0'0,"-16"19,12-13,-4-1,6-1,-4 4,2 0,0-8,4 4,-2-4,2 3,6-3,-2 0,4 0,0-3,0-1,0 4,0 0,2 0,-2 0,-1 0,1 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6538 37314,'0'0,"-9"-4,7 8,-2-2,2 3,2-3,0-2,0 8,2-8,6 0,-1 0,-3 0,2 0,4-6,-8 4,4-2,-2 1,-2-5,-2 4,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-3 0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6964 37300,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6736 37304,'0'0,"27"-4,-13 4,-4 0,2 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6418 37304,'0'0,"10"27,-8-13,2-2,-2 1,0-2,0-1,4 2,-2-2,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7020 37308,'0'0,"4"33,-2-21,2-3,-2 1,0-1,2-1,2 0,-2-3,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6743 37331,'0'0,"4"26,-4-21,0 3,8-1,-4-3,0 0,-2 4,4-4,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6578 37353,'0'0,"-20"17,20-12,0 5,0-4,2 0,4 0,2 0,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-2,-4-2,2 2,-4 1,0-1,-6 1,0 1,-2 0,-2 4,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6787 37355,'0'0,"32"0,-26 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6805 37419,'0'0,"34"0,-20 0,-8 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7042 37423,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,3-2,-5 2,0-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2290,44 +2290,44 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52694,'0'0,"16"32,0-15,-2 15,4-1,-2 7,2 18,0 20,-2-14,-8 3,-4-8,-4-16,-2 3,-10 5,-6-2,-22 5,12-11,-2-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52764,'0'0,"0"7,-6 5,2 1,-4 0,-2 2,-2 3,10-4,-6 2,4-3,2-2,2-7,0 0,0 1,6-5,-4-5,6-3,0-1,0-6,-2 5,2-6,-2-4,-2 3,6-1,-4-2,0 2,4 1,-10 5,6 1,-4 4,-2 3,2 4,0 0,0 0,2 0,-2 0,8 0,-2 0,2 0,-2 9,2-7,0 3,0 1,-2-4,2 2,-4 0,2-2,0 1,-2-1,2 0,-1 0,3 4,-2-4,-4-2,4 2,-6 2,-2-1,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30751 52751,'0'684</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">28247 52925,'0'0,"-8"32,14-23,0-3,0 0,0 0,0-3,4-3,-2 0,2 0,1 0,-5-9,0-1,0 1,-4 1,0 2,-2 1,0 0,0-1,-10 4,4 0,0 0,-5 2,3 0,4 0,-2 0,2 6,-2 3,2-2,2-1,0 2,2 5,0-5,6-1,6 0,-2-3,5-4,-5 0,-4 0,4 0,-4-7,-6 0,0-5,0-1,0 5,0-2,-8 4,0 0,0 2,-5 2,7 2,0 0,-2 0,6 2,-4 11,2-6,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30420 53020,'0'0,"0"-26,0 19,0 0,2 3,-2 0,0-2,0 3,0 1,0-2,-2 4,0 6,-2 3,-2 1,6 2,0 0,0 0,0-1,0-6,6 3,0-2,6-1,-2-5,0 0,2 0,-4 0,0-11,-2 3,0-3,-6 0,0-7,0 9,0-4,-6 0,-2 1,-2 5,2 2,0 1,0 4,0 0,0 0,0 9,-4-2,6 5,4 1,-4 0,4 4,2-7,0 5,2-6,10 1,-4-3,4-5,-2-2,0 0,-2 0,2-7,-6-1,2-3,-6-6,0 7,0-5,0 2,-6 5,-2 1,-2 1,2 6,-2 0,0 0,2 10,2-1,4 1,-2 2,4-4,0 2,6-4,6-1,0 1,2-6,4 0,-4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32807 52955,'0'0,"68"-20,-48 20,-2 5,1 0,-11 3,-2 2,-6 1,0 2,-10 0,-2-1,-3 1,-1-4,2-3,6-2,2-2,2 5,0-7,10 0,4 0,2 0,2 0,0 0,1 0,-3 4,4 8,-8-2,0 8,-2-1,-4-4,-2 6,0-5,-2 0,-12 2,-2-3,0-4,-5-3,5 1,6-3,0 0,6-4,8 0,6 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32510 52959,'0'0,"-14"-10,10 10,2 8,-4 3,2-1,2-1,0 0,2-1,0 4,0-3,8-5,2-3,2-1,0 0,0 0,-2-10,-2 2,-4-2,0 2,-4-4,0 2,0 4,-6-3,-2 7,-2-4,2 4,-2 2,2 0,2 0,-2 0,6 0,-4 8,4-4,2 9,0-7,0 3,10-2,-2 1,6 0,-4-6,2 0,-4-2,-2 0,0 0,-6-4,0-2,-8 4,2-6,0 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32799 52987,'0'0,"12"82,-10-60,6 5,-2-3,-2-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27625 53079,'0'0,"-4"71,4-47,0-1,0-2,0 0,0-6,0-4,2-5,4 1,-4-7,2-7,-2-7,0-4,2-7,-2-1,0-4,0-3,-2 1,4 4,-2 7,-2 4,0 4,0 5,4 4,-4 2,4 0,0 2,0 0,3 4,-1 10,6 6,2 1,-2 7,8-1,-2-1,4 1,4-2,-8 1,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27673 53190,'0'0,"69"-34,-43 34,0-4,-4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30936 53160,'0'0,"-2"-4,2 8,2 2,8 8,-2 5,2 0,-2 4,6-3,-6-1,0-1,-2-6,-6-4,2 2,4-6,-4-4,0 0,2-8,-4-6,4 0,-2-2,0-7,4 7,-6-4,4 4,-2 6,0-1,4 7,2 0,0 4,0 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31615 53254,'0'0,"0"-13,0 19,0 8,0 5,0-1,-4 2,4 6,-2-1,2 1,0-8,0 3,0-10,2 0,4-9,-4-2,0-2,4-9,-6-2,2-6,-2 1,2-6,-2-3,0 1,0-2,0 5,0 8,0 4,0 7,0 0,-2 8,2 6,0 4,0 5,0 2,2 4,6-3,-2-1,0-7,0 2,2-6,-6-6,4-2,-4-2,2 0,0-6,0-8,4-2,-2-7,2 2,-2-4,-2 5,2-1,0 7,-6 4,0 6,2 4,2 6,-2 8,0 0,4 5,-2 1,-2 1,6 0,-8 2,2-3,2 1,0-4,-2 2,0-7,2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30464 53379,'0'0,"0"-53,0 45,0 2,0 0,-10 6,0 0,-6 0,2 4,2 6,-2 9,0-6,8 12,0-3,6 1,0 0,4-6,6 1,8-4,2-8,8-4,-2-2,2 0,0-14,-4 6,-6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30667 53445,'0'0,"14"15,-10-1,-2 0,2 3,4-1,-4-4,6 0,-6-4,2-2,2-1,0-5,-4 0,0 0,2-11,2-1,-6-3,4-2,0-4,-2 5,4 0,-2 5,-4 1,3 7,-3-3,0 6,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26758 54264,'0'0,"2"13,-2 0,4 4,0-1,2 14,-2-8,2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27238 54275,'0'0,"12"50,-8-32,-2 3,0 1,0-2,2 2,-2-5,0 1,4-2,0-4,0-6,4-1,-2-3,2-2,0 0,0-2,2-3,-2 1,0 0,-2-2,0 2,-2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26995 54420,'0'0,"0"-3,0 6,0 3,0 2,2 5,0 1,0 2,2 0,-2 1,2-4,0-4,2-1,-2-6,0-2,0 0,2-2,0-4,1-5,-5-1,0 3,0 0,-2 5,0-2,0 4,2 2,0 2,2 6,0-6,4 7,2-7,4 2,-2-2,2-1,0-1,-4 0,-2 0,-4-1,-2-5,-2-1,0-1,0-4,-2 1,-4-2,-2-2,2 3,-2 3,6-2,-4 5,4 4,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26736 54504,'0'0,"54"-21,-34 11,8-4,0 0,-8 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26828 54610,'0'0,"10"-10,0 9,2-7,-2 4,-2-1,0 5,-2 0,-4 0,-2 7,0 3,0 1,-4 4,0-1,-2 0,2-2,-2 1,6-3,-8 0,6 0,-2-4,2 2,2-3,0-3,6-2,4 0,-2 0,0 0,4-2,-2-3,0-3,-2 6,2-2,2-4,-6 1,2 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30156 55713,'0'0,"14"49,-12-31,-1-4,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30352 55899,'0'0,"20"45,-20-31,0 0,0 1,2-4,2 0,-2-3,0-2,2-2,-2-4,4 0,2 0,-4 0,8-8,-6 2,4 0,-4-1,4 1,0 6,-4 0,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30138 55966,'0'0,"58"-42,-46 40,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30190 56087,'0'0,"6"-11,0 9,-4 0,6-2,-2 4,-2-2,4 2,-2 0,-2 0,2 2,-2 4,0-2,0-1,-2 6,0 1,-2-2,0 7,-4 0,-2 2,-2-4,0 0,8-3,-4-2,2-3,2-1,2-4,2 0,4 0,2-4,-4-1,4 1,0-4,2 4,-4 0,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32913 56072,'0'0,"8"-2,-7 10,1 1,0 4,2 1,-2 2,2 9,-2-3,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">33466 56168,'0'0,"6"59,-6-36,2-1,0-1,0-2,-2 0,6-4,-4-4,6-5,-2-4,2 4,2-6,2 0,0 0,0 0,2-6,-4 6,-2 0,4 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32715 56170,'0'0,"8"0,-6 0,10 0,-4 0,2 0,0 0,10 0,-8 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">33194 56270,'0'0,"-2"12,2-1,0 0,4 4,-4-1,4-1,0 0,0-5,2 1,0-3,2-4,-2-2,2 0,0-6,-4-7,0-1,-4 0,2 0,-2-1,0 8,0 3,0 0,-2 4,2 0,0 8,0 1,0 0,6 1,2-2,6-2,-3 0,5-4,-6 4,2-6,-4 0,0 0,-4 0,0-9,0-2,-4-1,0-1,-4 0,0-2,-4 5,2 2,0 0,0 2,-2 0,8 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32911 56323,'0'0,"51"-15,-33 15,-4-2,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32934 56489,'0'0,"50"-24,-36 18,-4 6,0 0,-4 0,-4 0,-2 6,0 8,-8-6,-2 6,-4 3,0-4,4 0,0-5,4 0,6 0,4-8,6 0,2 0,0 0,4 0,0 0,-2 0,14 0,-6 0,-6-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32823 58481,'0'0,"26"-9,-20 7,4-2,-2 4,-2 0,-2 0,2 6,-6 3,0 1,0-2,0 4,0-2,-6-2,2 3,0-6,2 1,2-4,0-2,2 0,6 0,2-2,0 0,-2-2,5 4,1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31985 58481,'0'0,"0"-6,0 3,2 3,2 5,-2 5,0 2,0 4,4-2,-4 6,3 3,-5-1,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32652 58545,'0'0,"8"-1,-4 6,-4 3,0 7,0-1,0 4,0 1,0-2,0 2,2 0,2-6,-1 0,1-3,0-6,6 0,-6-4,4 0,2 0,-4 0,0-4,2 4,-2-4,0 2,4 2,-4-4,4 4,-2-4,2-1,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32345 58676,'0'0,"0"2,0 7,2 3,-2 5,0-1,0 0,6 5,-2-10,4 4,-2-7,6-6,-4 2,2-4,0-4,-6-4,0-5,2 1,-6 1,0-2,0 1,0 5,-6 2,4 5,0 0,-2 0,4 8,4 0,4 0,0 5,2-5,2-5,1 5,3-6,0-2,-6 0,4 0,-6-10,0 3,-8-10,0 1,0 0,-8-3,-2 0,-2 4,6 3,-2 1,2 5,0 3,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30476 59238,'0'0,"-6"0,12-4,4-4,2 2,6-4,6-4,8-3,0 2,1-2,-1 7,-10 2,-6 8,-6 0,-8 8,-2 8,0 1,0 1,-4-2,-2-2,4-2,2-4,0-3,12-5,4-9,2-7,6-4,5-5,3-3,14-10,10-7,18-10,11-2,3 3,6 8,-10 5,3 2,-15 5,-17 8,-17 11,-16 5,-10 3,-8 5,-4-5,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31981 58724,'0'0,"47"-23,-31 17,7 2,-1 0,0-2,4 6,-2-3,-6 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32111 58823,'0'0,"0"-18,-4 18,0 0,0 4,-4 4,0-2,2 2,-2 4,4-1,0-2,4 2,0-3,6-4,2 0,2-4,4 0,-2-2,2-8,-2-1,-4 0,-4 1,-2-5,-2 7,-2 2,-4 6,-6 0,-2 0,4 6,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32143 58926,'0'0,"-20"24,12-15,2 5,4-2,-4 2,4-6,2 5,0-5,8-2,0-3,4-3,4 0,0 0,0-9,-6-3,-2-5,0 1,-8 0,0 1,0 2,-4 2,-4 5,-2 2,8 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30438 59179,'0'0,"28"-6,-26 6,0 0,0 0,-2 4,0 2,0 3,-2 1,-2 3,-4-4,2 5,-2-3,0-1,6-3,-4 0,2-3,2 2,2-6,6 0,4 0,4 0,-2 0,0 0,6 0,-2 0,0-6,-2 4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52694,'0'0,"16"32,0-15,-2 14,4 0,-2 7,2 17,0 21,-2-15,-8 4,-4-8,-4-17,-2 4,-10 5,-6-3,-22 6,12-11,-2-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52763,'0'0,"0"7,-6 5,2 1,-4 0,-2 2,-2 3,10-4,-6 2,4-3,2-2,2-8,0 1,0 1,6-5,-4-5,6-2,0-2,0-6,-2 5,2-6,-2-4,-2 3,6-1,-4-2,0 3,4 0,-10 5,6 1,-4 4,-2 3,2 4,0 0,0 0,2 0,-2 0,8 0,-2 0,2 0,-2 9,2-7,0 3,0 1,-2-4,2 2,-4 0,2-2,0 1,-2-1,2 0,-1 0,3 4,-2-4,-4-2,4 2,-6 2,-2-2,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30751 52751,'0'678</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28247 52923,'0'0,"-8"32,14-23,0-3,0 0,0 0,0-3,4-3,-2 0,2 0,1 0,-5-9,0-1,0 1,-4 1,0 2,-2 1,0 0,0-1,-10 4,4 0,0 0,-5 2,3 0,4 0,-2 0,2 6,-2 3,2-2,2-1,0 2,2 5,0-5,6-1,6 0,-2-3,5-4,-5 0,-4 0,4 0,-4-7,-6 0,0-5,0-1,0 5,0-2,-8 4,0 0,0 2,-5 2,7 2,0 0,-2 0,6 2,-4 11,2-6,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30420 53018,'0'0,"0"-26,0 19,0 0,2 3,-2 0,0-2,0 3,0 1,0-2,-2 4,0 6,-2 3,-2 1,6 2,0 0,0 0,0-1,0-7,6 4,0-2,6-1,-2-5,0 0,2 0,-4 0,0-11,-2 3,0-2,-6-1,0-7,0 9,0-4,-6 0,-2 1,-2 5,2 2,0 1,0 4,0 0,0 0,0 9,-4-2,6 5,4 1,-4 0,4 4,2-7,0 5,2-7,10 2,-4-3,4-5,-2-2,0 0,-2 0,2-7,-6-1,2-2,-6-7,0 7,0-5,0 2,-6 5,-2 1,-2 1,2 6,-2 0,0 0,2 10,2-1,4 1,-2 2,4-4,0 2,6-4,6-1,0 1,2-6,4 0,-4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32807 52953,'0'0,"68"-20,-48 20,-2 5,1 0,-11 3,-2 2,-6 1,0 2,-10 0,-2-1,-3 1,-1-5,2-2,6-2,2-2,2 5,0-7,10 0,4 0,2 0,2 0,0 0,1 0,-3 4,4 8,-8-2,0 8,-2-1,-4-4,-2 6,0-5,-2-1,-12 3,-2-3,0-4,-5-3,5 1,6-3,0 0,6-4,8 0,6 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32510 52957,'0'0,"-14"-10,10 10,2 8,-4 3,2-1,2-1,0 0,2-1,0 4,0-3,8-5,2-3,2-1,0 0,0 0,-2-10,-2 2,-4-2,0 2,-4-4,0 2,0 4,-6-3,-2 7,-2-4,2 4,-2 2,2 0,2 0,-2 0,6 0,-4 8,4-4,2 9,0-7,0 3,10-2,-2 1,6 0,-4-6,2 0,-4-2,-2 0,0 0,-6-4,0-2,-8 4,2-6,0 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32799 52985,'0'0,"12"81,-10-59,6 5,-2-3,-2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27625 53076,'0'0,"-4"71,4-48,0 0,0-2,0 0,0-6,0-4,2-5,4 1,-4-7,2-7,-2-7,0-4,2-7,-2-1,0-3,0-4,-2 1,4 4,-2 7,-2 5,0 3,0 5,4 4,-4 2,4 0,0 2,0 0,3 4,-1 10,6 5,2 2,-2 7,8-1,-2-1,4 1,4-3,-8 2,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27673 53186,'0'0,"69"-33,-43 33,0-4,-4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30936 53157,'0'0,"-2"-4,2 8,2 1,8 9,-2 5,2 0,-2 4,6-3,-6-1,0-1,-2-7,-6-3,2 2,4-6,-4-4,0 0,2-8,-4-6,4 1,-2-3,0-7,4 7,-6-4,4 4,-2 6,0-1,4 7,2 0,0 4,0 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31615 53250,'0'0,"0"-13,0 19,0 8,0 5,0-1,-4 1,4 7,-2-1,2 1,0-8,0 3,0-11,2 1,4-9,-4-2,0-2,4-9,-6-1,2-7,-2 1,2-6,-2-3,0 1,0-1,0 4,0 8,0 4,0 7,0 0,-2 8,2 6,0 4,0 5,0 1,2 5,6-3,-2-1,0-7,0 2,2-6,-6-6,4-2,-4-2,2 0,0-6,0-8,4-2,-2-7,2 2,-2-4,-2 6,2-2,0 7,-6 4,0 6,2 4,2 6,-2 8,0 0,4 5,-2 0,-2 2,6 0,-8 2,2-3,2 1,0-5,-2 3,0-7,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30464 53374,'0'0,"0"-53,0 45,0 2,0 0,-10 6,0 0,-6 0,2 4,2 6,-2 9,0-6,8 12,0-3,6 1,0-1,4-5,6 1,8-4,2-8,8-4,-2-2,2 0,0-14,-4 6,-6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30667 53439,'0'0,"14"15,-10-1,-2 0,2 3,4-1,-4-4,6 0,-6-4,2-2,2-1,0-5,-4 0,0 0,2-11,2-1,-6-3,4-2,0-4,-2 5,4 0,-2 5,-4 1,3 8,-3-4,0 6,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26758 54252,'0'0,"2"13,-2 0,4 4,0-1,2 14,-2-8,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27238 54263,'0'0,"12"50,-8-32,-2 3,0 0,0-1,2 2,-2-5,0 1,4-2,0-4,0-6,4-1,-2-3,2-2,0 0,0-2,2-3,-2 1,0 0,-2-2,0 2,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26995 54407,'0'0,"0"-3,0 6,0 3,0 2,2 5,0 1,0 2,2 0,-2 1,2-5,0-3,2-1,-2-6,0-2,0 0,2-2,0-4,1-5,-5-1,0 4,0-1,-2 5,0-2,0 4,2 2,0 2,2 6,0-6,4 7,2-7,4 2,-2-2,2-2,0 0,-4 0,-2 0,-4 0,-2-6,-2-1,0-1,0-4,-2 1,-4-2,-2-2,2 3,-2 3,6-2,-4 5,4 4,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26736 54491,'0'0,"54"-21,-34 11,8-4,0 0,-8 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26828 54596,'0'0,"10"-10,0 9,2-7,-2 4,-2-1,0 5,-2 0,-4 0,-2 7,0 3,0 1,-4 4,0-1,-2-1,2-1,-2 1,6-3,-8 0,6 0,-2-4,2 2,2-3,0-3,6-2,4 0,-2 0,0 0,4-2,-2-3,0-3,-2 6,2-2,2-4,-6 1,2 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30156 55691,'0'0,"14"48,-12-30,-1-4,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30352 55875,'0'0,"20"45,-20-31,0 0,0 1,2-5,2 1,-2-3,0-2,2-2,-2-4,4 0,2 0,-4 0,8-8,-6 2,4 0,-4-1,4 1,0 6,-4 0,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30138 55942,'0'0,"58"-42,-46 40,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30190 56062,'0'0,"6"-11,0 9,-4 0,6-2,-2 4,-2-2,4 2,-2 0,-2 0,2 2,-2 4,0-2,0-1,-2 6,0 1,-2-2,0 7,-4-1,-2 3,-2-4,0 0,8-3,-4-2,2-3,2-1,2-4,2 0,4 0,2-4,-4-1,4 1,0-4,2 4,-4 0,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32913 56047,'0'0,"8"-2,-7 10,1 1,0 4,2 1,-2 1,2 10,-2-3,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33466 56142,'0'0,"6"59,-6-36,2-2,0 0,0-2,-2 0,6-4,-4-4,6-5,-2-4,2 4,2-6,2 0,0 0,0 0,2-6,-4 6,-2 0,4 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32715 56144,'0'0,"8"0,-6 0,10 0,-4 0,2 0,0 0,10 0,-8 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33194 56243,'0'0,"-2"12,2-1,0 0,4 4,-4-1,4-1,0 0,0-5,2 1,0-3,2-4,-2-2,2 0,0-6,-4-7,0-1,-4 0,2 0,-2-1,0 8,0 3,0 0,-2 4,2 0,0 8,0 1,0 0,6 1,2-2,6-2,-3 0,5-4,-6 4,2-6,-4 0,0 0,-4 0,0-9,0-2,-4-1,0-1,-4 0,0-2,-4 5,2 2,0 1,0 1,-2 0,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32911 56296,'0'0,"51"-15,-33 15,-4-2,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32934 56461,'0'0,"50"-24,-36 18,-4 6,0 0,-4 0,-4 0,-2 6,0 8,-8-6,-2 6,-4 3,0-5,4 1,0-5,4 0,6 0,4-8,6 0,2 0,0 0,4 0,0 0,-2 0,14 0,-6 0,-6-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32823 58438,'0'0,"26"-9,-20 7,4-2,-2 4,-2 0,-2 0,2 6,-6 3,0 1,0-2,0 4,0-2,-6-2,2 3,0-7,2 2,2-4,0-2,2 0,6 0,2-2,0 0,-2-2,5 4,1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31985 58438,'0'0,"0"-6,0 3,2 3,2 5,-2 5,0 2,0 4,4-2,-4 5,3 4,-5-1,6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32652 58501,'0'0,"8"0,-4 4,-4 4,0 7,0-1,0 4,0 1,0-2,0 2,2 0,2-7,-1 1,1-3,0-6,6 0,-6-4,4 0,2 0,-4 0,0-4,2 4,-2-4,0 2,4 2,-4-4,4 4,-2-4,2-1,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32345 58632,'0'0,"0"2,0 6,2 4,-2 5,0-1,0 0,6 5,-2-10,4 4,-2-7,6-6,-4 2,2-4,0-4,-6-4,0-5,2 1,-6 1,0-2,0 1,0 5,-6 2,4 5,0 0,-2 0,4 8,4 0,4 0,0 5,2-5,2-5,1 5,3-6,0-2,-6 0,4 0,-6-10,0 3,-8-10,0 1,0 0,-8-3,-2 1,-2 3,6 3,-2 1,2 5,0 3,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30476 59189,'0'0,"-6"0,12-4,4-4,2 2,6-3,6-5,8-3,0 2,1-2,-1 7,-10 2,-6 8,-6 0,-8 8,-2 8,0 1,0 1,-4-2,-2-3,4-1,2-4,0-3,12-5,4-9,2-7,6-3,5-6,3-3,14-10,10-6,18-11,11-2,3 4,6 7,-10 6,3 1,-15 5,-17 8,-17 11,-16 5,-10 4,-8 4,-4-5,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31981 58679,'0'0,"47"-23,-31 17,7 2,-1 0,0-2,4 6,-2-2,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32111 58777,'0'0,"0"-17,-4 17,0 0,0 4,-4 3,0-1,2 2,-2 4,4-1,0-2,4 2,0-3,6-4,2 0,2-4,4 0,-2-2,2-8,-2-1,-4 0,-4 1,-2-5,-2 7,-2 2,-4 6,-6 0,-2 0,4 6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32143 58880,'0'0,"-20"23,12-14,2 5,4-2,-4 2,4-6,2 5,0-5,8-2,0-3,4-3,4 0,0 0,0-9,-6-3,-2-5,0 1,-8 0,0 1,0 3,-4 1,-4 5,-2 2,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30438 59131,'0'0,"28"-6,-26 6,0 0,0 0,-2 4,0 2,0 3,-2 1,-2 3,-4-5,2 6,-2-3,0-1,6-3,-4 0,2-3,2 2,2-6,6 0,4 0,4 0,-2 0,0 0,6 0,-2 0,0-6,-2 4,-2 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2766,7 +2766,7 @@
   <dimension ref="B4:E71"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2850,14 +2850,14 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <f>38.4*3 + 6.31*3</f>
-        <v>134.13</v>
+        <f>660 + 45*3</f>
+        <v>795</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C19" s="2">
         <f>C16/(2*C13*C18)</f>
-        <v>2246.9179381947338</v>
+        <v>13317.675097776884</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>21</v>
@@ -3053,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770A6D2D-AB64-4CB7-950D-CBC4190FB579}">
   <dimension ref="B4:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3075,7 +3075,7 @@
         <v>35</v>
       </c>
       <c r="AE5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
@@ -3119,7 +3119,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -3131,27 +3131,27 @@
         <v>36</v>
       </c>
       <c r="P8" s="2">
-        <f>50/12</f>
-        <v>4.166666666666667</v>
+        <f>26/14</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE8" s="2">
-        <f>(6.31*2)*3</f>
-        <v>37.86</v>
+        <f>90</f>
+        <v>90</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D11" s="2">
         <f>(1/4)*D8*D9</f>
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="P11" s="2">
         <f>(1/8)*P8*P9^2</f>
-        <v>102.08333333333334</v>
+        <v>45.5</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>18</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="AE11" s="2">
         <f>AE8*AE9</f>
-        <v>530.04</v>
+        <v>1260</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>18</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="D14" s="2">
         <f>ABS(D11)/D13</f>
-        <v>36.222565004427317</v>
+        <v>18.835733802302205</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="P14" s="2">
         <f>ABS(P11)/P13</f>
-        <v>21.129829585915939</v>
+        <v>9.4178669011511023</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>21</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="AE14" s="2">
         <f>ABS(AE11)/AE13</f>
-        <v>109.71090488540945</v>
+        <v>260.80246803187669</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>21</v>
@@ -3407,7 +3407,7 @@
       <c r="B26" s="1"/>
       <c r="X26" s="11"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.3">
@@ -3455,10 +3455,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC663C3-7309-480C-8450-91D7F4817F10}">
-  <dimension ref="B4:S24"/>
+  <dimension ref="B4:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3468,7 +3468,7 @@
         <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -3477,13 +3477,13 @@
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="14">
         <v>63606.25</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -3500,13 +3500,13 @@
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="18">
         <v>31336.97</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="D7">
         <f>SQRT((Bending!D14)^2+3*(Torsion!C19)^2)</f>
-        <v>3891.9445958491392</v>
+        <v>23066.897598392105</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -3537,11 +3537,11 @@
         <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="2">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7">
         <f>Q6/D7</f>
-        <v>8.0517513104944243</v>
+        <v>1.3585255609833014</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>29</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="D9" s="7">
         <f>D8/D7</f>
-        <v>9.7637566682033441</v>
+        <v>1.6473823511770747</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -3563,11 +3563,11 @@
         <v>34</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="2">
+        <v>47</v>
+      </c>
+      <c r="P9" s="7">
         <f>Q5/D7</f>
-        <v>16.343051252023919</v>
+        <v>2.7574687809093894</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>29</v>
@@ -3577,19 +3577,19 @@
       <c r="B10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -3603,7 +3603,7 @@
       <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
@@ -3611,13 +3611,13 @@
       </c>
       <c r="D14">
         <f>SQRT((Bending!P14)^2+3*(Torsion!C19)^2)</f>
-        <v>3891.8333896304134</v>
+        <v>23066.89183063155</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
@@ -3634,11 +3634,11 @@
         <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="2">
+        <v>46</v>
+      </c>
+      <c r="P15" s="7">
         <f>Q6/D14</f>
-        <v>8.0519813832461899</v>
+        <v>1.358525900675801</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>29</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D16" s="7">
         <f>D15/D14</f>
-        <v>9.7640356602235379</v>
+        <v>1.647382763096765</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
@@ -3660,31 +3660,31 @@
         <v>34</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="2">
+        <v>47</v>
+      </c>
+      <c r="P16" s="7">
         <f>Q5/D14</f>
-        <v>16.343518242449825</v>
+        <v>2.7574694704006215</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -3696,26 +3696,23 @@
       <c r="F20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="S20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D21">
         <f>SQRT((Bending!AE14)^2+3*(Torsion!C19)^2)</f>
-        <v>3893.3221219922962</v>
+        <v>23068.364223697594</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3730,24 +3727,24 @@
         <v>30</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" s="2">
+        <v>46</v>
+      </c>
+      <c r="P22" s="7">
         <f>Q6/D21</f>
-        <v>8.0489024586448039</v>
+        <v>1.3584391895376899</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="7">
         <f>D22/D21</f>
-        <v>9.7603020786152133</v>
+        <v>1.6472776149842252</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
@@ -3756,17 +3753,17 @@
         <v>34</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="2">
+        <v>47</v>
+      </c>
+      <c r="P23" s="7">
         <f>Q5/D21</f>
-        <v>16.337268791787338</v>
+        <v>2.7572934683707992</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q24" s="2"/>
     </row>
   </sheetData>

--- a/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
+++ b/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaidc\Documents\Github\12-DOF-Quadruped\Calculation solvers\Housing combined loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B15712-AEB4-433A-90E5-97EF87651884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270F6E5-6695-4893-A66D-77D123C83C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{CA3A924D-1B74-47FA-8478-8B12608BBBB0}"/>
   </bookViews>
@@ -3053,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770A6D2D-AB64-4CB7-950D-CBC4190FB579}">
   <dimension ref="B4:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3458,7 +3458,7 @@
   <dimension ref="B4:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
